--- a/SizingResidentialPVbatterysystems/sample.xlsx
+++ b/SizingResidentialPVbatterysystems/sample.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28908"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aldo/Documents/GitHub/Python-Codes/SizingResidentialPVbatterysystems/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6860" yWindow="0" windowWidth="13620" windowHeight="15820" tabRatio="500"/>
+    <workbookView xWindow="6860" yWindow="440" windowWidth="17660" windowHeight="15820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" iterate="1" concurrentCalc="0"/>
+  <calcPr calcId="150001" iterate="1" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
   </extLst>
 </workbook>
@@ -37,6 +42,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ am/pm"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -84,12 +92,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -357,7 +367,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -365,20 +375,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C290"/>
+  <dimension ref="A1:F335"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -389,8 +399,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
         <v>0</v>
       </c>
       <c r="B2">
@@ -400,8 +410,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
         <v>3.472222222222222E-3</v>
       </c>
       <c r="B3">
@@ -411,8 +421,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="B4">
@@ -422,8 +432,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="B5">
@@ -432,9 +442,10 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="B6">
@@ -444,8 +455,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
         <v>1.7361111111111112E-2</v>
       </c>
       <c r="B7">
@@ -455,8 +466,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="B8">
@@ -466,8 +477,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
         <v>2.4305555555555556E-2</v>
       </c>
       <c r="B9">
@@ -477,8 +488,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
         <v>2.7777777777777776E-2</v>
       </c>
       <c r="B10">
@@ -488,8 +499,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
         <v>3.125E-2</v>
       </c>
       <c r="B11">
@@ -499,8 +510,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
         <v>3.4722222222222224E-2</v>
       </c>
       <c r="B12">
@@ -510,8 +521,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
         <v>3.8194444444444441E-2</v>
       </c>
       <c r="B13">
@@ -521,8 +532,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="B14">
@@ -532,8 +543,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
         <v>4.5138888888888888E-2</v>
       </c>
       <c r="B15">
@@ -543,8 +554,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
         <v>4.8611111111111112E-2</v>
       </c>
       <c r="B16">
@@ -554,8 +565,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
-      <c r="A17">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
         <v>5.2083333333333336E-2</v>
       </c>
       <c r="B17">
@@ -565,8 +576,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
-      <c r="A18">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="B18">
@@ -576,8 +587,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
-      <c r="A19">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
         <v>5.9027777777777783E-2</v>
       </c>
       <c r="B19">
@@ -587,8 +598,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
-      <c r="A20">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
         <v>6.25E-2</v>
       </c>
       <c r="B20">
@@ -598,8 +609,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
         <v>6.5972222222222224E-2</v>
       </c>
       <c r="B21">
@@ -609,8 +620,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
         <v>6.9444444444444434E-2</v>
       </c>
       <c r="B22">
@@ -620,8 +631,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
-      <c r="A23">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
         <v>7.2916666666666671E-2</v>
       </c>
       <c r="B23">
@@ -631,8 +642,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
-      <c r="A24">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
         <v>7.6388888888888895E-2</v>
       </c>
       <c r="B24">
@@ -642,8 +653,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
-      <c r="A25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
         <v>7.9861111111111105E-2</v>
       </c>
       <c r="B25">
@@ -653,8 +664,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
-      <c r="A26">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="B26">
@@ -664,8 +675,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="A27">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
         <v>8.6805555555555566E-2</v>
       </c>
       <c r="B27">
@@ -675,8 +686,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
-      <c r="A28">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
         <v>9.0277777777777776E-2</v>
       </c>
       <c r="B28">
@@ -686,8 +697,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
-      <c r="A29">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
         <v>9.375E-2</v>
       </c>
       <c r="B29">
@@ -697,8 +708,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
-      <c r="A30">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="2">
         <v>9.7222222222222224E-2</v>
       </c>
       <c r="B30">
@@ -708,8 +719,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
-      <c r="A31">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="2">
         <v>0.10069444444444443</v>
       </c>
       <c r="B31">
@@ -719,8 +730,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
-      <c r="A32">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="2">
         <v>0.10416666666666667</v>
       </c>
       <c r="B32">
@@ -730,8 +741,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
-      <c r="A33">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="2">
         <v>0.1076388888888889</v>
       </c>
       <c r="B33">
@@ -741,8 +752,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
-      <c r="A34">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="2">
         <v>0.1111111111111111</v>
       </c>
       <c r="B34">
@@ -752,8 +763,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
-      <c r="A35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="2">
         <v>0.11458333333333333</v>
       </c>
       <c r="B35">
@@ -763,8 +774,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
-      <c r="A36">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="2">
         <v>0.11805555555555557</v>
       </c>
       <c r="B36">
@@ -774,8 +785,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
-      <c r="A37">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="2">
         <v>0.12152777777777778</v>
       </c>
       <c r="B37">
@@ -785,8 +796,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
-      <c r="A38">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="2">
         <v>0.125</v>
       </c>
       <c r="B38">
@@ -796,8 +807,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
-      <c r="A39">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="2">
         <v>0.12847222222222224</v>
       </c>
       <c r="B39">
@@ -807,8 +818,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
-      <c r="A40">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="2">
         <v>0.13194444444444445</v>
       </c>
       <c r="B40">
@@ -818,8 +829,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
-      <c r="A41">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="2">
         <v>0.13541666666666666</v>
       </c>
       <c r="B41">
@@ -829,8 +840,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
-      <c r="A42">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="2">
         <v>0.1388888888888889</v>
       </c>
       <c r="B42">
@@ -840,8 +851,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
-      <c r="A43">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="2">
         <v>0.1423611111111111</v>
       </c>
       <c r="B43">
@@ -851,8 +862,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
-      <c r="A44">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="2">
         <v>0.14583333333333334</v>
       </c>
       <c r="B44">
@@ -862,8 +873,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
-      <c r="A45">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="2">
         <v>0.14930555555555555</v>
       </c>
       <c r="B45">
@@ -873,8 +884,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
-      <c r="A46">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="2">
         <v>0.15277777777777776</v>
       </c>
       <c r="B46">
@@ -884,8 +895,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
-      <c r="A47">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="2">
         <v>0.15625</v>
       </c>
       <c r="B47">
@@ -895,8 +906,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
-      <c r="A48">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="2">
         <v>0.15972222222222224</v>
       </c>
       <c r="B48">
@@ -906,8 +917,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
-      <c r="A49">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="2">
         <v>0.16319444444444445</v>
       </c>
       <c r="B49">
@@ -917,8 +928,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
-      <c r="A50">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="2">
         <v>0.16666666666666666</v>
       </c>
       <c r="B50">
@@ -928,8 +939,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
-      <c r="A51">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="2">
         <v>0.17013888888888887</v>
       </c>
       <c r="B51">
@@ -939,8 +950,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
-      <c r="A52">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="2">
         <v>0.17361111111111113</v>
       </c>
       <c r="B52">
@@ -950,8 +961,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
-      <c r="A53">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="2">
         <v>0.17708333333333334</v>
       </c>
       <c r="B53">
@@ -961,8 +972,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
-      <c r="A54">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="2">
         <v>0.18055555555555555</v>
       </c>
       <c r="B54">
@@ -972,8 +983,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
-      <c r="A55">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="2">
         <v>0.18402777777777779</v>
       </c>
       <c r="B55">
@@ -983,8 +994,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
-      <c r="A56">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="2">
         <v>0.1875</v>
       </c>
       <c r="B56">
@@ -994,8 +1005,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
-      <c r="A57">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" s="2">
         <v>0.19097222222222221</v>
       </c>
       <c r="B57">
@@ -1005,8 +1016,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
-      <c r="A58">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="2">
         <v>0.19444444444444445</v>
       </c>
       <c r="B58">
@@ -1016,8 +1027,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
-      <c r="A59">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" s="2">
         <v>0.19791666666666666</v>
       </c>
       <c r="B59">
@@ -1027,8 +1038,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
-      <c r="A60">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" s="2">
         <v>0.20138888888888887</v>
       </c>
       <c r="B60">
@@ -1038,8 +1049,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
-      <c r="A61">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" s="2">
         <v>0.20486111111111113</v>
       </c>
       <c r="B61">
@@ -1049,8 +1060,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
-      <c r="A62">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" s="2">
         <v>0.20833333333333334</v>
       </c>
       <c r="B62">
@@ -1060,8 +1071,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
-      <c r="A63">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" s="2">
         <v>0.21180555555555555</v>
       </c>
       <c r="B63">
@@ -1071,8 +1082,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
-      <c r="A64">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" s="2">
         <v>0.21527777777777779</v>
       </c>
       <c r="B64">
@@ -1082,8 +1093,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
-      <c r="A65">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" s="2">
         <v>0.21875</v>
       </c>
       <c r="B65">
@@ -1093,8 +1104,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
-      <c r="A66">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" s="2">
         <v>0.22222222222222221</v>
       </c>
       <c r="B66">
@@ -1104,8 +1115,8 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
-      <c r="A67">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" s="2">
         <v>0.22569444444444445</v>
       </c>
       <c r="B67">
@@ -1115,8 +1126,8 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
-      <c r="A68">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" s="2">
         <v>0.22916666666666666</v>
       </c>
       <c r="B68">
@@ -1126,8 +1137,8 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
-      <c r="A69">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" s="2">
         <v>0.23263888888888887</v>
       </c>
       <c r="B69">
@@ -1137,8 +1148,8 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
-      <c r="A70">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" s="2">
         <v>0.23611111111111113</v>
       </c>
       <c r="B70">
@@ -1148,8 +1159,8 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
-      <c r="A71">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" s="2">
         <v>0.23958333333333334</v>
       </c>
       <c r="B71">
@@ -1159,8 +1170,8 @@
         <v>5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
-      <c r="A72">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" s="2">
         <v>0.24305555555555555</v>
       </c>
       <c r="B72">
@@ -1170,8 +1181,8 @@
         <v>8.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
-      <c r="A73">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" s="2">
         <v>0.24652777777777779</v>
       </c>
       <c r="B73">
@@ -1181,8 +1192,8 @@
         <v>0.114</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
-      <c r="A74">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" s="2">
         <v>0.25</v>
       </c>
       <c r="B74">
@@ -1192,8 +1203,8 @@
         <v>0.154</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
-      <c r="A75">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" s="2">
         <v>0.25347222222222221</v>
       </c>
       <c r="B75">
@@ -1203,8 +1214,8 @@
         <v>0.21299999999999999</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
-      <c r="A76">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" s="2">
         <v>0.25694444444444448</v>
       </c>
       <c r="B76">
@@ -1214,8 +1225,8 @@
         <v>0.32300000000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
-      <c r="A77">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" s="2">
         <v>0.26041666666666669</v>
       </c>
       <c r="B77">
@@ -1225,8 +1236,8 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
-      <c r="A78">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" s="2">
         <v>0.2638888888888889</v>
       </c>
       <c r="B78">
@@ -1236,8 +1247,8 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
-      <c r="A79">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" s="2">
         <v>0.2673611111111111</v>
       </c>
       <c r="B79">
@@ -1247,8 +1258,8 @@
         <v>0.79200000000000004</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
-      <c r="A80">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" s="2">
         <v>0.27083333333333331</v>
       </c>
       <c r="B80">
@@ -1258,8 +1269,8 @@
         <v>0.94399999999999995</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
-      <c r="A81">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" s="2">
         <v>0.27430555555555552</v>
       </c>
       <c r="B81">
@@ -1269,8 +1280,8 @@
         <v>1.101</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
-      <c r="A82">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" s="2">
         <v>0.27777777777777779</v>
       </c>
       <c r="B82">
@@ -1280,8 +1291,8 @@
         <v>1.274</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
-      <c r="A83">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" s="2">
         <v>0.28125</v>
       </c>
       <c r="B83">
@@ -1291,8 +1302,8 @@
         <v>1.4590000000000001</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
-      <c r="A84">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" s="2">
         <v>0.28472222222222221</v>
       </c>
       <c r="B84">
@@ -1302,8 +1313,8 @@
         <v>1.764</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
-      <c r="A85">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" s="2">
         <v>0.28819444444444448</v>
       </c>
       <c r="B85">
@@ -1313,8 +1324,8 @@
         <v>1.901</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
-      <c r="A86">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" s="2">
         <v>0.29166666666666669</v>
       </c>
       <c r="B86">
@@ -1324,8 +1335,8 @@
         <v>2.1389999999999998</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
-      <c r="A87">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" s="2">
         <v>0.2951388888888889</v>
       </c>
       <c r="B87">
@@ -1335,8 +1346,8 @@
         <v>2.3220000000000001</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
-      <c r="A88">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" s="2">
         <v>0.2986111111111111</v>
       </c>
       <c r="B88">
@@ -1346,8 +1357,8 @@
         <v>2.4630000000000001</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
-      <c r="A89">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" s="2">
         <v>0.30208333333333331</v>
       </c>
       <c r="B89">
@@ -1357,8 +1368,8 @@
         <v>2.6360000000000001</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
-      <c r="A90">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90" s="2">
         <v>0.30555555555555552</v>
       </c>
       <c r="B90">
@@ -1368,8 +1379,8 @@
         <v>3.0089999999999999</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
-      <c r="A91">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91" s="2">
         <v>0.30902777777777779</v>
       </c>
       <c r="B91">
@@ -1379,8 +1390,8 @@
         <v>3.3250000000000002</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
-      <c r="A92">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92" s="2">
         <v>0.3125</v>
       </c>
       <c r="B92">
@@ -1390,8 +1401,8 @@
         <v>3.645</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
-      <c r="A93">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93" s="2">
         <v>0.31597222222222221</v>
       </c>
       <c r="B93">
@@ -1401,8 +1412,8 @@
         <v>3.9620000000000002</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
-      <c r="A94">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94" s="2">
         <v>0.31944444444444448</v>
       </c>
       <c r="B94">
@@ -1412,8 +1423,8 @@
         <v>4.1890000000000001</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
-      <c r="A95">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95" s="2">
         <v>0.32291666666666669</v>
       </c>
       <c r="B95">
@@ -1423,8 +1434,8 @@
         <v>4.5309999999999997</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
-      <c r="A96">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96" s="2">
         <v>0.3263888888888889</v>
       </c>
       <c r="B96">
@@ -1434,8 +1445,8 @@
         <v>4.8239999999999998</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
-      <c r="A97">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" s="2">
         <v>0.3298611111111111</v>
       </c>
       <c r="B97">
@@ -1445,8 +1456,8 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
-      <c r="A98">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" s="2">
         <v>0.33333333333333331</v>
       </c>
       <c r="B98">
@@ -1456,8 +1467,8 @@
         <v>5.4169999999999998</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
-      <c r="A99">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99" s="2">
         <v>0.33680555555555558</v>
       </c>
       <c r="B99">
@@ -1467,8 +1478,8 @@
         <v>5.7670000000000003</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
-      <c r="A100">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100" s="2">
         <v>0.34027777777777773</v>
       </c>
       <c r="B100">
@@ -1478,8 +1489,8 @@
         <v>6.1420000000000003</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
-      <c r="A101">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101" s="2">
         <v>0.34375</v>
       </c>
       <c r="B101">
@@ -1489,8 +1500,8 @@
         <v>6.351</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
-      <c r="A102">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102" s="2">
         <v>0.34722222222222227</v>
       </c>
       <c r="B102">
@@ -1500,8 +1511,8 @@
         <v>6.4210000000000003</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
-      <c r="A103">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103" s="2">
         <v>0.35069444444444442</v>
       </c>
       <c r="B103">
@@ -1511,8 +1522,8 @@
         <v>6.7039999999999997</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
-      <c r="A104">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104" s="2">
         <v>0.35416666666666669</v>
       </c>
       <c r="B104">
@@ -1522,8 +1533,8 @@
         <v>6.9219999999999997</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
-      <c r="A105">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105" s="2">
         <v>0.3576388888888889</v>
       </c>
       <c r="B105">
@@ -1533,8 +1544,8 @@
         <v>7.0979999999999999</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
-      <c r="A106">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106" s="2">
         <v>0.3611111111111111</v>
       </c>
       <c r="B106">
@@ -1544,8 +1555,8 @@
         <v>7.399</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
-      <c r="A107">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107" s="2">
         <v>0.36458333333333331</v>
       </c>
       <c r="B107">
@@ -1555,8 +1566,8 @@
         <v>7.8609999999999998</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
-      <c r="A108">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108" s="2">
         <v>0.36805555555555558</v>
       </c>
       <c r="B108">
@@ -1566,8 +1577,8 @@
         <v>8.1140000000000008</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
-      <c r="A109">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109" s="2">
         <v>0.37152777777777773</v>
       </c>
       <c r="B109">
@@ -1577,8 +1588,8 @@
         <v>8.2850000000000001</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
-      <c r="A110">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110" s="2">
         <v>0.375</v>
       </c>
       <c r="B110">
@@ -1588,8 +1599,8 @@
         <v>8.4130000000000003</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
-      <c r="A111">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111" s="2">
         <v>0.37847222222222227</v>
       </c>
       <c r="B111">
@@ -1599,8 +1610,8 @@
         <v>8.6289999999999996</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
-      <c r="A112">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112" s="2">
         <v>0.38194444444444442</v>
       </c>
       <c r="B112">
@@ -1610,8 +1621,8 @@
         <v>8.7159999999999993</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
-      <c r="A113">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113" s="2">
         <v>0.38541666666666669</v>
       </c>
       <c r="B113">
@@ -1621,8 +1632,8 @@
         <v>9.2119999999999997</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
-      <c r="A114">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114" s="2">
         <v>0.3888888888888889</v>
       </c>
       <c r="B114">
@@ -1632,8 +1643,8 @@
         <v>9.6720000000000006</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
-      <c r="A115">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115" s="2">
         <v>0.3923611111111111</v>
       </c>
       <c r="B115">
@@ -1643,8 +1654,8 @@
         <v>9.8059999999999992</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
-      <c r="A116">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116" s="2">
         <v>0.39583333333333331</v>
       </c>
       <c r="B116">
@@ -1654,8 +1665,8 @@
         <v>10.037000000000001</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
-      <c r="A117">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117" s="2">
         <v>0.39930555555555558</v>
       </c>
       <c r="B117">
@@ -1665,8 +1676,8 @@
         <v>10.215999999999999</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
-      <c r="A118">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118" s="2">
         <v>0.40277777777777773</v>
       </c>
       <c r="B118">
@@ -1676,8 +1687,8 @@
         <v>10.363</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
-      <c r="A119">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119" s="2">
         <v>0.40625</v>
       </c>
       <c r="B119">
@@ -1687,8 +1698,8 @@
         <v>10.691000000000001</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
-      <c r="A120">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120" s="2">
         <v>0.40972222222222227</v>
       </c>
       <c r="B120">
@@ -1698,8 +1709,8 @@
         <v>11.023999999999999</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
-      <c r="A121">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121" s="2">
         <v>0.41319444444444442</v>
       </c>
       <c r="B121">
@@ -1709,8 +1720,8 @@
         <v>11.23</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
-      <c r="A122">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122" s="2">
         <v>0.41666666666666669</v>
       </c>
       <c r="B122">
@@ -1720,8 +1731,8 @@
         <v>11.531000000000001</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
-      <c r="A123">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123" s="2">
         <v>0.4201388888888889</v>
       </c>
       <c r="B123">
@@ -1731,8 +1742,8 @@
         <v>12.031000000000001</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
-      <c r="A124">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124" s="2">
         <v>0.4236111111111111</v>
       </c>
       <c r="B124">
@@ -1742,8 +1753,8 @@
         <v>12.39</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
-      <c r="A125">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125" s="2">
         <v>0.42708333333333331</v>
       </c>
       <c r="B125">
@@ -1753,8 +1764,8 @@
         <v>12.664</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
-      <c r="A126">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126" s="2">
         <v>0.43055555555555558</v>
       </c>
       <c r="B126">
@@ -1764,8 +1775,8 @@
         <v>13.217000000000001</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
-      <c r="A127">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127" s="2">
         <v>0.43402777777777773</v>
       </c>
       <c r="B127">
@@ -1775,8 +1786,8 @@
         <v>13.528</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
-      <c r="A128">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128" s="2">
         <v>0.4375</v>
       </c>
       <c r="B128">
@@ -1786,8 +1797,8 @@
         <v>13.74</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
-      <c r="A129">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129" s="2">
         <v>0.44097222222222227</v>
       </c>
       <c r="B129">
@@ -1797,8 +1808,8 @@
         <v>13.878</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
-      <c r="A130">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130" s="2">
         <v>0.44444444444444442</v>
       </c>
       <c r="B130">
@@ -1808,8 +1819,8 @@
         <v>14.068</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
-      <c r="A131">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131" s="2">
         <v>0.44791666666666669</v>
       </c>
       <c r="B131">
@@ -1819,8 +1830,8 @@
         <v>14.592000000000001</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
-      <c r="A132">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132" s="2">
         <v>0.4513888888888889</v>
       </c>
       <c r="B132">
@@ -1830,8 +1841,8 @@
         <v>14.939</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
-      <c r="A133">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133" s="2">
         <v>0.4548611111111111</v>
       </c>
       <c r="B133">
@@ -1841,8 +1852,8 @@
         <v>14.87</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
-      <c r="A134">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134" s="2">
         <v>0.45833333333333331</v>
       </c>
       <c r="B134">
@@ -1852,8 +1863,8 @@
         <v>15.34</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
-      <c r="A135">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135" s="2">
         <v>0.46180555555555558</v>
       </c>
       <c r="B135">
@@ -1863,8 +1874,8 @@
         <v>15.76</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
-      <c r="A136">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136" s="2">
         <v>0.46527777777777773</v>
       </c>
       <c r="B136">
@@ -1874,8 +1885,8 @@
         <v>15.593999999999999</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
-      <c r="A137">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137" s="2">
         <v>0.46875</v>
       </c>
       <c r="B137">
@@ -1885,8 +1896,8 @@
         <v>16.256</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
-      <c r="A138">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138" s="2">
         <v>0.47222222222222227</v>
       </c>
       <c r="B138">
@@ -1896,8 +1907,8 @@
         <v>16.503</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
-      <c r="A139">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139" s="2">
         <v>0.47569444444444442</v>
       </c>
       <c r="B139">
@@ -1907,8 +1918,8 @@
         <v>16.236999999999998</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
-      <c r="A140">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140" s="2">
         <v>0.47916666666666669</v>
       </c>
       <c r="B140">
@@ -1918,8 +1929,8 @@
         <v>16.175999999999998</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
-      <c r="A141">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A141" s="2">
         <v>0.4826388888888889</v>
       </c>
       <c r="B141">
@@ -1929,8 +1940,8 @@
         <v>16.523</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
-      <c r="A142">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A142" s="2">
         <v>0.4861111111111111</v>
       </c>
       <c r="B142">
@@ -1940,8 +1951,8 @@
         <v>16.878</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
-      <c r="A143">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A143" s="2">
         <v>0.48958333333333331</v>
       </c>
       <c r="B143">
@@ -1951,8 +1962,8 @@
         <v>16.797999999999998</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
-      <c r="A144">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A144" s="2">
         <v>0.49305555555555558</v>
       </c>
       <c r="B144">
@@ -1962,8 +1973,8 @@
         <v>17.074999999999999</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
-      <c r="A145">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145" s="2">
         <v>0.49652777777777773</v>
       </c>
       <c r="B145">
@@ -1973,8 +1984,8 @@
         <v>17.492000000000001</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
-      <c r="A146">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146" s="2">
         <v>0.5</v>
       </c>
       <c r="B146">
@@ -1984,8 +1995,8 @@
         <v>17.658999999999999</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
-      <c r="A147">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A147" s="2">
         <v>0.50347222222222221</v>
       </c>
       <c r="B147">
@@ -1995,8 +2006,8 @@
         <v>17.434999999999999</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
-      <c r="A148">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A148" s="2">
         <v>0.50694444444444442</v>
       </c>
       <c r="B148">
@@ -2006,8 +2017,8 @@
         <v>17.602</v>
       </c>
     </row>
-    <row r="149" spans="1:3">
-      <c r="A149">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A149" s="2">
         <v>0.51041666666666663</v>
       </c>
       <c r="B149">
@@ -2017,8 +2028,8 @@
         <v>17.812999999999999</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
-      <c r="A150">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A150" s="2">
         <v>0.51388888888888895</v>
       </c>
       <c r="B150">
@@ -2028,8 +2039,8 @@
         <v>17.716999999999999</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
-      <c r="A151">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A151" s="2">
         <v>0.51736111111111105</v>
       </c>
       <c r="B151">
@@ -2039,8 +2050,8 @@
         <v>17.768000000000001</v>
       </c>
     </row>
-    <row r="152" spans="1:3">
-      <c r="A152">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A152" s="2">
         <v>0.52083333333333337</v>
       </c>
       <c r="B152">
@@ -2050,8 +2061,8 @@
         <v>17.619</v>
       </c>
     </row>
-    <row r="153" spans="1:3">
-      <c r="A153">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A153" s="2">
         <v>0.52430555555555558</v>
       </c>
       <c r="B153">
@@ -2061,8 +2072,8 @@
         <v>17.899000000000001</v>
       </c>
     </row>
-    <row r="154" spans="1:3">
-      <c r="A154">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A154" s="2">
         <v>0.52777777777777779</v>
       </c>
       <c r="B154">
@@ -2072,8 +2083,8 @@
         <v>18.099</v>
       </c>
     </row>
-    <row r="155" spans="1:3">
-      <c r="A155">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A155" s="2">
         <v>0.53125</v>
       </c>
       <c r="B155">
@@ -2083,8 +2094,8 @@
         <v>18.350999999999999</v>
       </c>
     </row>
-    <row r="156" spans="1:3">
-      <c r="A156">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A156" s="2">
         <v>0.53472222222222221</v>
       </c>
       <c r="B156">
@@ -2094,8 +2105,8 @@
         <v>18.622</v>
       </c>
     </row>
-    <row r="157" spans="1:3">
-      <c r="A157">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A157" s="2">
         <v>0.53819444444444442</v>
       </c>
       <c r="B157">
@@ -2105,8 +2116,8 @@
         <v>18.119</v>
       </c>
     </row>
-    <row r="158" spans="1:3">
-      <c r="A158">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A158" s="2">
         <v>0.54166666666666663</v>
       </c>
       <c r="B158">
@@ -2116,8 +2127,8 @@
         <v>18.655000000000001</v>
       </c>
     </row>
-    <row r="159" spans="1:3">
-      <c r="A159">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A159" s="2">
         <v>0.54513888888888895</v>
       </c>
       <c r="B159">
@@ -2127,8 +2138,8 @@
         <v>18.693999999999999</v>
       </c>
     </row>
-    <row r="160" spans="1:3">
-      <c r="A160">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A160" s="2">
         <v>0.54861111111111105</v>
       </c>
       <c r="B160">
@@ -2138,8 +2149,8 @@
         <v>18.510000000000002</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
-      <c r="A161">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A161" s="2">
         <v>0.55208333333333337</v>
       </c>
       <c r="B161">
@@ -2149,8 +2160,8 @@
         <v>18.486999999999998</v>
       </c>
     </row>
-    <row r="162" spans="1:3">
-      <c r="A162">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A162" s="2">
         <v>0.55555555555555558</v>
       </c>
       <c r="B162">
@@ -2160,8 +2171,8 @@
         <v>18.606999999999999</v>
       </c>
     </row>
-    <row r="163" spans="1:3">
-      <c r="A163">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A163" s="2">
         <v>0.55902777777777779</v>
       </c>
       <c r="B163">
@@ -2171,8 +2182,8 @@
         <v>18.646000000000001</v>
       </c>
     </row>
-    <row r="164" spans="1:3">
-      <c r="A164">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A164" s="2">
         <v>0.5625</v>
       </c>
       <c r="B164">
@@ -2182,8 +2193,8 @@
         <v>18.997</v>
       </c>
     </row>
-    <row r="165" spans="1:3">
-      <c r="A165">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A165" s="2">
         <v>0.56597222222222221</v>
       </c>
       <c r="B165">
@@ -2193,8 +2204,8 @@
         <v>18.292999999999999</v>
       </c>
     </row>
-    <row r="166" spans="1:3">
-      <c r="A166">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A166" s="2">
         <v>0.56944444444444442</v>
       </c>
       <c r="B166">
@@ -2204,8 +2215,8 @@
         <v>18.181999999999999</v>
       </c>
     </row>
-    <row r="167" spans="1:3">
-      <c r="A167">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A167" s="2">
         <v>0.57291666666666663</v>
       </c>
       <c r="B167">
@@ -2215,8 +2226,8 @@
         <v>18.157</v>
       </c>
     </row>
-    <row r="168" spans="1:3">
-      <c r="A168">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A168" s="2">
         <v>0.57638888888888895</v>
       </c>
       <c r="B168">
@@ -2226,8 +2237,8 @@
         <v>18.567</v>
       </c>
     </row>
-    <row r="169" spans="1:3">
-      <c r="A169">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A169" s="2">
         <v>0.57986111111111105</v>
       </c>
       <c r="B169">
@@ -2237,8 +2248,8 @@
         <v>18.274999999999999</v>
       </c>
     </row>
-    <row r="170" spans="1:3">
-      <c r="A170">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A170" s="2">
         <v>0.58333333333333337</v>
       </c>
       <c r="B170">
@@ -2248,8 +2259,8 @@
         <v>18.436</v>
       </c>
     </row>
-    <row r="171" spans="1:3">
-      <c r="A171">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A171" s="2">
         <v>0.58680555555555558</v>
       </c>
       <c r="B171">
@@ -2259,8 +2270,8 @@
         <v>18.542999999999999</v>
       </c>
     </row>
-    <row r="172" spans="1:3">
-      <c r="A172">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A172" s="2">
         <v>0.59027777777777779</v>
       </c>
       <c r="B172">
@@ -2270,8 +2281,8 @@
         <v>18.672000000000001</v>
       </c>
     </row>
-    <row r="173" spans="1:3">
-      <c r="A173">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A173" s="2">
         <v>0.59375</v>
       </c>
       <c r="B173">
@@ -2281,8 +2292,8 @@
         <v>19.004000000000001</v>
       </c>
     </row>
-    <row r="174" spans="1:3">
-      <c r="A174">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A174" s="2">
         <v>0.59722222222222221</v>
       </c>
       <c r="B174">
@@ -2292,8 +2303,8 @@
         <v>18.143999999999998</v>
       </c>
     </row>
-    <row r="175" spans="1:3">
-      <c r="A175">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A175" s="2">
         <v>0.60069444444444442</v>
       </c>
       <c r="B175">
@@ -2303,8 +2314,8 @@
         <v>18.359000000000002</v>
       </c>
     </row>
-    <row r="176" spans="1:3">
-      <c r="A176">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A176" s="2">
         <v>0.60416666666666663</v>
       </c>
       <c r="B176">
@@ -2314,8 +2325,8 @@
         <v>18.257000000000001</v>
       </c>
     </row>
-    <row r="177" spans="1:3">
-      <c r="A177">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A177" s="2">
         <v>0.60763888888888895</v>
       </c>
       <c r="B177">
@@ -2325,8 +2336,8 @@
         <v>17.78</v>
       </c>
     </row>
-    <row r="178" spans="1:3">
-      <c r="A178">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A178" s="2">
         <v>0.61111111111111105</v>
       </c>
       <c r="B178">
@@ -2336,8 +2347,8 @@
         <v>18.39</v>
       </c>
     </row>
-    <row r="179" spans="1:3">
-      <c r="A179">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A179" s="2">
         <v>0.61458333333333337</v>
       </c>
       <c r="B179">
@@ -2347,8 +2358,8 @@
         <v>17.922999999999998</v>
       </c>
     </row>
-    <row r="180" spans="1:3">
-      <c r="A180">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A180" s="2">
         <v>0.61805555555555558</v>
       </c>
       <c r="B180">
@@ -2358,8 +2369,8 @@
         <v>17.760000000000002</v>
       </c>
     </row>
-    <row r="181" spans="1:3">
-      <c r="A181">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A181" s="2">
         <v>0.62152777777777779</v>
       </c>
       <c r="B181">
@@ -2369,8 +2380,8 @@
         <v>17.631</v>
       </c>
     </row>
-    <row r="182" spans="1:3">
-      <c r="A182">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A182" s="2">
         <v>0.625</v>
       </c>
       <c r="B182">
@@ -2380,8 +2391,8 @@
         <v>17.379000000000001</v>
       </c>
     </row>
-    <row r="183" spans="1:3">
-      <c r="A183">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A183" s="2">
         <v>0.62847222222222221</v>
       </c>
       <c r="B183">
@@ -2391,8 +2402,8 @@
         <v>17.346</v>
       </c>
     </row>
-    <row r="184" spans="1:3">
-      <c r="A184">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A184" s="2">
         <v>0.63194444444444442</v>
       </c>
       <c r="B184">
@@ -2402,8 +2413,8 @@
         <v>16.995000000000001</v>
       </c>
     </row>
-    <row r="185" spans="1:3">
-      <c r="A185">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A185" s="2">
         <v>0.63541666666666663</v>
       </c>
       <c r="B185">
@@ -2413,8 +2424,8 @@
         <v>17.3</v>
       </c>
     </row>
-    <row r="186" spans="1:3">
-      <c r="A186">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A186" s="2">
         <v>0.63888888888888895</v>
       </c>
       <c r="B186">
@@ -2424,8 +2435,8 @@
         <v>17.23</v>
       </c>
     </row>
-    <row r="187" spans="1:3">
-      <c r="A187">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A187" s="2">
         <v>0.64236111111111105</v>
       </c>
       <c r="B187">
@@ -2435,8 +2446,8 @@
         <v>17.004000000000001</v>
       </c>
     </row>
-    <row r="188" spans="1:3">
-      <c r="A188">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A188" s="2">
         <v>0.64583333333333337</v>
       </c>
       <c r="B188">
@@ -2446,8 +2457,8 @@
         <v>16.713999999999999</v>
       </c>
     </row>
-    <row r="189" spans="1:3">
-      <c r="A189">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A189" s="2">
         <v>0.64930555555555558</v>
       </c>
       <c r="B189">
@@ -2457,8 +2468,8 @@
         <v>17.064</v>
       </c>
     </row>
-    <row r="190" spans="1:3">
-      <c r="A190">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A190" s="2">
         <v>0.65277777777777779</v>
       </c>
       <c r="B190">
@@ -2468,8 +2479,8 @@
         <v>16.552</v>
       </c>
     </row>
-    <row r="191" spans="1:3">
-      <c r="A191">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A191" s="2">
         <v>0.65625</v>
       </c>
       <c r="B191">
@@ -2479,8 +2490,8 @@
         <v>16.593</v>
       </c>
     </row>
-    <row r="192" spans="1:3">
-      <c r="A192">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A192" s="2">
         <v>0.65972222222222221</v>
       </c>
       <c r="B192">
@@ -2490,8 +2501,8 @@
         <v>16.465</v>
       </c>
     </row>
-    <row r="193" spans="1:3">
-      <c r="A193">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A193" s="2">
         <v>0.66319444444444442</v>
       </c>
       <c r="B193">
@@ -2501,8 +2512,8 @@
         <v>15.693</v>
       </c>
     </row>
-    <row r="194" spans="1:3">
-      <c r="A194">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A194" s="2">
         <v>0.66666666666666663</v>
       </c>
       <c r="B194">
@@ -2512,8 +2523,8 @@
         <v>15.193</v>
       </c>
     </row>
-    <row r="195" spans="1:3">
-      <c r="A195">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A195" s="2">
         <v>0.67013888888888884</v>
       </c>
       <c r="B195">
@@ -2523,8 +2534,8 @@
         <v>14.77</v>
       </c>
     </row>
-    <row r="196" spans="1:3">
-      <c r="A196">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A196" s="2">
         <v>0.67361111111111116</v>
       </c>
       <c r="B196">
@@ -2534,8 +2545,8 @@
         <v>14.666</v>
       </c>
     </row>
-    <row r="197" spans="1:3">
-      <c r="A197">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A197" s="2">
         <v>0.67708333333333337</v>
       </c>
       <c r="B197">
@@ -2545,8 +2556,8 @@
         <v>14.372</v>
       </c>
     </row>
-    <row r="198" spans="1:3">
-      <c r="A198">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A198" s="2">
         <v>0.68055555555555547</v>
       </c>
       <c r="B198">
@@ -2556,8 +2567,8 @@
         <v>14.1</v>
       </c>
     </row>
-    <row r="199" spans="1:3">
-      <c r="A199">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A199" s="2">
         <v>0.68402777777777779</v>
       </c>
       <c r="B199">
@@ -2567,8 +2578,8 @@
         <v>14.542999999999999</v>
       </c>
     </row>
-    <row r="200" spans="1:3">
-      <c r="A200">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A200" s="2">
         <v>0.6875</v>
       </c>
       <c r="B200">
@@ -2578,8 +2589,8 @@
         <v>13.904</v>
       </c>
     </row>
-    <row r="201" spans="1:3">
-      <c r="A201">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A201" s="2">
         <v>0.69097222222222221</v>
       </c>
       <c r="B201">
@@ -2589,8 +2600,8 @@
         <v>13.574</v>
       </c>
     </row>
-    <row r="202" spans="1:3">
-      <c r="A202">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A202" s="2">
         <v>0.69444444444444453</v>
       </c>
       <c r="B202">
@@ -2600,8 +2611,8 @@
         <v>13.507</v>
       </c>
     </row>
-    <row r="203" spans="1:3">
-      <c r="A203">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A203" s="2">
         <v>0.69791666666666663</v>
       </c>
       <c r="B203">
@@ -2611,8 +2622,8 @@
         <v>13.433</v>
       </c>
     </row>
-    <row r="204" spans="1:3">
-      <c r="A204">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A204" s="2">
         <v>0.70138888888888884</v>
       </c>
       <c r="B204">
@@ -2622,8 +2633,8 @@
         <v>13.307</v>
       </c>
     </row>
-    <row r="205" spans="1:3">
-      <c r="A205">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A205" s="2">
         <v>0.70486111111111116</v>
       </c>
       <c r="B205">
@@ -2633,8 +2644,8 @@
         <v>13.541</v>
       </c>
     </row>
-    <row r="206" spans="1:3">
-      <c r="A206">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A206" s="2">
         <v>0.70833333333333337</v>
       </c>
       <c r="B206">
@@ -2644,8 +2655,8 @@
         <v>13.04</v>
       </c>
     </row>
-    <row r="207" spans="1:3">
-      <c r="A207">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A207" s="2">
         <v>0.71180555555555547</v>
       </c>
       <c r="B207">
@@ -2655,8 +2666,8 @@
         <v>12.771000000000001</v>
       </c>
     </row>
-    <row r="208" spans="1:3">
-      <c r="A208">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A208" s="2">
         <v>0.71527777777777779</v>
       </c>
       <c r="B208">
@@ -2666,8 +2677,8 @@
         <v>12.191000000000001</v>
       </c>
     </row>
-    <row r="209" spans="1:3">
-      <c r="A209">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A209" s="2">
         <v>0.71875</v>
       </c>
       <c r="B209">
@@ -2677,8 +2688,8 @@
         <v>11.747999999999999</v>
       </c>
     </row>
-    <row r="210" spans="1:3">
-      <c r="A210">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A210" s="2">
         <v>0.72222222222222221</v>
       </c>
       <c r="B210">
@@ -2688,8 +2699,8 @@
         <v>11.534000000000001</v>
       </c>
     </row>
-    <row r="211" spans="1:3">
-      <c r="A211">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A211" s="2">
         <v>0.72569444444444453</v>
       </c>
       <c r="B211">
@@ -2699,8 +2710,8 @@
         <v>11.409000000000001</v>
       </c>
     </row>
-    <row r="212" spans="1:3">
-      <c r="A212">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A212" s="2">
         <v>0.72916666666666663</v>
       </c>
       <c r="B212">
@@ -2710,8 +2721,8 @@
         <v>11.475</v>
       </c>
     </row>
-    <row r="213" spans="1:3">
-      <c r="A213">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A213" s="2">
         <v>0.73263888888888884</v>
       </c>
       <c r="B213">
@@ -2721,8 +2732,8 @@
         <v>11.378</v>
       </c>
     </row>
-    <row r="214" spans="1:3">
-      <c r="A214">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A214" s="2">
         <v>0.73611111111111116</v>
       </c>
       <c r="B214">
@@ -2732,8 +2743,8 @@
         <v>10.676</v>
       </c>
     </row>
-    <row r="215" spans="1:3">
-      <c r="A215">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A215" s="2">
         <v>0.73958333333333337</v>
       </c>
       <c r="B215">
@@ -2743,8 +2754,8 @@
         <v>10.233000000000001</v>
       </c>
     </row>
-    <row r="216" spans="1:3">
-      <c r="A216">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A216" s="2">
         <v>0.74305555555555547</v>
       </c>
       <c r="B216">
@@ -2754,8 +2765,8 @@
         <v>9.9809999999999999</v>
       </c>
     </row>
-    <row r="217" spans="1:3">
-      <c r="A217">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A217" s="2">
         <v>0.74652777777777779</v>
       </c>
       <c r="B217">
@@ -2765,8 +2776,8 @@
         <v>9.7409999999999997</v>
       </c>
     </row>
-    <row r="218" spans="1:3">
-      <c r="A218">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A218" s="2">
         <v>0.75</v>
       </c>
       <c r="B218">
@@ -2776,8 +2787,8 @@
         <v>9.5210000000000008</v>
       </c>
     </row>
-    <row r="219" spans="1:3">
-      <c r="A219">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A219" s="2">
         <v>0.75347222222222221</v>
       </c>
       <c r="B219">
@@ -2787,8 +2798,8 @@
         <v>9.0340000000000007</v>
       </c>
     </row>
-    <row r="220" spans="1:3">
-      <c r="A220">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A220" s="2">
         <v>0.75694444444444453</v>
       </c>
       <c r="B220">
@@ -2798,8 +2809,8 @@
         <v>8.9619999999999997</v>
       </c>
     </row>
-    <row r="221" spans="1:3">
-      <c r="A221">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A221" s="2">
         <v>0.76041666666666663</v>
       </c>
       <c r="B221">
@@ -2809,8 +2820,8 @@
         <v>8.9090000000000007</v>
       </c>
     </row>
-    <row r="222" spans="1:3">
-      <c r="A222">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A222" s="2">
         <v>0.76388888888888884</v>
       </c>
       <c r="B222">
@@ -2820,8 +2831,8 @@
         <v>8.6530000000000005</v>
       </c>
     </row>
-    <row r="223" spans="1:3">
-      <c r="A223">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A223" s="2">
         <v>0.76736111111111116</v>
       </c>
       <c r="B223">
@@ -2831,8 +2842,8 @@
         <v>8.4930000000000003</v>
       </c>
     </row>
-    <row r="224" spans="1:3">
-      <c r="A224">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A224" s="2">
         <v>0.77083333333333337</v>
       </c>
       <c r="B224">
@@ -2842,8 +2853,8 @@
         <v>8.1370000000000005</v>
       </c>
     </row>
-    <row r="225" spans="1:3">
-      <c r="A225">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A225" s="2">
         <v>0.77430555555555547</v>
       </c>
       <c r="B225">
@@ -2853,8 +2864,8 @@
         <v>7.6319999999999997</v>
       </c>
     </row>
-    <row r="226" spans="1:3">
-      <c r="A226">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A226" s="2">
         <v>0.77777777777777779</v>
       </c>
       <c r="B226">
@@ -2864,8 +2875,8 @@
         <v>7.3550000000000004</v>
       </c>
     </row>
-    <row r="227" spans="1:3">
-      <c r="A227">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A227" s="2">
         <v>0.78125</v>
       </c>
       <c r="B227">
@@ -2875,8 +2886,8 @@
         <v>7.0410000000000004</v>
       </c>
     </row>
-    <row r="228" spans="1:3">
-      <c r="A228">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A228" s="2">
         <v>0.78472222222222221</v>
       </c>
       <c r="B228">
@@ -2886,8 +2897,8 @@
         <v>6.7530000000000001</v>
       </c>
     </row>
-    <row r="229" spans="1:3">
-      <c r="A229">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A229" s="2">
         <v>0.78819444444444453</v>
       </c>
       <c r="B229">
@@ -2897,8 +2908,8 @@
         <v>6.6479999999999997</v>
       </c>
     </row>
-    <row r="230" spans="1:3">
-      <c r="A230">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A230" s="2">
         <v>0.79166666666666663</v>
       </c>
       <c r="B230">
@@ -2908,8 +2919,8 @@
         <v>6.4180000000000001</v>
       </c>
     </row>
-    <row r="231" spans="1:3">
-      <c r="A231">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A231" s="2">
         <v>0.79513888888888884</v>
       </c>
       <c r="B231">
@@ -2919,8 +2930,8 @@
         <v>6.0759999999999996</v>
       </c>
     </row>
-    <row r="232" spans="1:3">
-      <c r="A232">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A232" s="2">
         <v>0.79861111111111116</v>
       </c>
       <c r="B232">
@@ -2930,8 +2941,8 @@
         <v>5.6890000000000001</v>
       </c>
     </row>
-    <row r="233" spans="1:3">
-      <c r="A233">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A233" s="2">
         <v>0.80208333333333337</v>
       </c>
       <c r="B233">
@@ -2941,8 +2952,8 @@
         <v>5.4989999999999997</v>
       </c>
     </row>
-    <row r="234" spans="1:3">
-      <c r="A234">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A234" s="2">
         <v>0.80555555555555547</v>
       </c>
       <c r="B234">
@@ -2952,8 +2963,8 @@
         <v>5.125</v>
       </c>
     </row>
-    <row r="235" spans="1:3">
-      <c r="A235">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A235" s="2">
         <v>0.80902777777777779</v>
       </c>
       <c r="B235">
@@ -2963,8 +2974,8 @@
         <v>4.8860000000000001</v>
       </c>
     </row>
-    <row r="236" spans="1:3">
-      <c r="A236">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A236" s="2">
         <v>0.8125</v>
       </c>
       <c r="B236">
@@ -2974,8 +2985,8 @@
         <v>4.4550000000000001</v>
       </c>
     </row>
-    <row r="237" spans="1:3">
-      <c r="A237">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A237" s="2">
         <v>0.81597222222222221</v>
       </c>
       <c r="B237">
@@ -2985,8 +2996,8 @@
         <v>4.101</v>
       </c>
     </row>
-    <row r="238" spans="1:3">
-      <c r="A238">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A238" s="2">
         <v>0.81944444444444453</v>
       </c>
       <c r="B238">
@@ -2996,8 +3007,8 @@
         <v>3.835</v>
       </c>
     </row>
-    <row r="239" spans="1:3">
-      <c r="A239">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A239" s="2">
         <v>0.82291666666666663</v>
       </c>
       <c r="B239">
@@ -3007,8 +3018,8 @@
         <v>3.589</v>
       </c>
     </row>
-    <row r="240" spans="1:3">
-      <c r="A240">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A240" s="2">
         <v>0.82638888888888884</v>
       </c>
       <c r="B240">
@@ -3018,8 +3029,8 @@
         <v>3.3730000000000002</v>
       </c>
     </row>
-    <row r="241" spans="1:3">
-      <c r="A241">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A241" s="2">
         <v>0.82986111111111116</v>
       </c>
       <c r="B241">
@@ -3029,8 +3040,8 @@
         <v>3.0760000000000001</v>
       </c>
     </row>
-    <row r="242" spans="1:3">
-      <c r="A242">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A242" s="2">
         <v>0.83333333333333337</v>
       </c>
       <c r="B242">
@@ -3040,8 +3051,8 @@
         <v>2.774</v>
       </c>
     </row>
-    <row r="243" spans="1:3">
-      <c r="A243">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A243" s="2">
         <v>0.83680555555555547</v>
       </c>
       <c r="B243">
@@ -3051,8 +3062,8 @@
         <v>2.5070000000000001</v>
       </c>
     </row>
-    <row r="244" spans="1:3">
-      <c r="A244">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A244" s="2">
         <v>0.84027777777777779</v>
       </c>
       <c r="B244">
@@ -3062,8 +3073,8 @@
         <v>2.1829999999999998</v>
       </c>
     </row>
-    <row r="245" spans="1:3">
-      <c r="A245">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A245" s="2">
         <v>0.84375</v>
       </c>
       <c r="B245">
@@ -3073,8 +3084,8 @@
         <v>1.96</v>
       </c>
     </row>
-    <row r="246" spans="1:3">
-      <c r="A246">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A246" s="2">
         <v>0.84722222222222221</v>
       </c>
       <c r="B246">
@@ -3084,8 +3095,8 @@
         <v>1.8120000000000001</v>
       </c>
     </row>
-    <row r="247" spans="1:3">
-      <c r="A247">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A247" s="2">
         <v>0.85069444444444453</v>
       </c>
       <c r="B247">
@@ -3095,8 +3106,8 @@
         <v>1.556</v>
       </c>
     </row>
-    <row r="248" spans="1:3">
-      <c r="A248">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A248" s="2">
         <v>0.85416666666666663</v>
       </c>
       <c r="B248">
@@ -3106,8 +3117,8 @@
         <v>1.3879999999999999</v>
       </c>
     </row>
-    <row r="249" spans="1:3">
-      <c r="A249">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A249" s="2">
         <v>0.85763888888888884</v>
       </c>
       <c r="B249">
@@ -3117,8 +3128,8 @@
         <v>1.159</v>
       </c>
     </row>
-    <row r="250" spans="1:3">
-      <c r="A250">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A250" s="2">
         <v>0.86111111111111116</v>
       </c>
       <c r="B250">
@@ -3128,8 +3139,8 @@
         <v>1.008</v>
       </c>
     </row>
-    <row r="251" spans="1:3">
-      <c r="A251">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A251" s="2">
         <v>0.86458333333333337</v>
       </c>
       <c r="B251">
@@ -3139,8 +3150,8 @@
         <v>0.81200000000000006</v>
       </c>
     </row>
-    <row r="252" spans="1:3">
-      <c r="A252">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A252" s="2">
         <v>0.86805555555555547</v>
       </c>
       <c r="B252">
@@ -3150,8 +3161,8 @@
         <v>0.64700000000000002</v>
       </c>
     </row>
-    <row r="253" spans="1:3">
-      <c r="A253">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A253" s="2">
         <v>0.87152777777777779</v>
       </c>
       <c r="B253">
@@ -3161,8 +3172,8 @@
         <v>0.53600000000000003</v>
       </c>
     </row>
-    <row r="254" spans="1:3">
-      <c r="A254">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A254" s="2">
         <v>0.875</v>
       </c>
       <c r="B254">
@@ -3172,8 +3183,8 @@
         <v>0.40300000000000002</v>
       </c>
     </row>
-    <row r="255" spans="1:3">
-      <c r="A255">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A255" s="2">
         <v>0.87847222222222221</v>
       </c>
       <c r="B255">
@@ -3183,8 +3194,8 @@
         <v>0.27800000000000002</v>
       </c>
     </row>
-    <row r="256" spans="1:3">
-      <c r="A256">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A256" s="2">
         <v>0.88194444444444453</v>
       </c>
       <c r="B256">
@@ -3194,8 +3205,8 @@
         <v>0.17699999999999999</v>
       </c>
     </row>
-    <row r="257" spans="1:3">
-      <c r="A257">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A257" s="2">
         <v>0.88541666666666663</v>
       </c>
       <c r="B257">
@@ -3205,8 +3216,8 @@
         <v>0.111</v>
       </c>
     </row>
-    <row r="258" spans="1:3">
-      <c r="A258">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A258" s="2">
         <v>0.88888888888888884</v>
       </c>
       <c r="B258">
@@ -3216,8 +3227,8 @@
         <v>5.7000000000000002E-2</v>
       </c>
     </row>
-    <row r="259" spans="1:3">
-      <c r="A259">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A259" s="2">
         <v>0.89236111111111116</v>
       </c>
       <c r="B259">
@@ -3227,8 +3238,8 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="260" spans="1:3">
-      <c r="A260">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A260" s="2">
         <v>0.89583333333333337</v>
       </c>
       <c r="B260">
@@ -3238,8 +3249,8 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="261" spans="1:3">
-      <c r="A261">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A261" s="2">
         <v>0.89930555555555547</v>
       </c>
       <c r="B261">
@@ -3249,8 +3260,8 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="262" spans="1:3">
-      <c r="A262">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A262" s="2">
         <v>0.90277777777777779</v>
       </c>
       <c r="B262">
@@ -3260,8 +3271,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:3">
-      <c r="A263">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A263" s="2">
         <v>0.90625</v>
       </c>
       <c r="B263">
@@ -3271,8 +3282,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:3">
-      <c r="A264">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A264" s="2">
         <v>0.90972222222222221</v>
       </c>
       <c r="B264">
@@ -3282,8 +3293,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:3">
-      <c r="A265">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A265" s="2">
         <v>0.91319444444444453</v>
       </c>
       <c r="B265">
@@ -3293,8 +3304,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:3">
-      <c r="A266">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A266" s="2">
         <v>0.91666666666666663</v>
       </c>
       <c r="B266">
@@ -3304,8 +3315,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:3">
-      <c r="A267">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A267" s="2">
         <v>0.92013888888888884</v>
       </c>
       <c r="B267">
@@ -3315,8 +3326,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:3">
-      <c r="A268">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A268" s="2">
         <v>0.92361111111111116</v>
       </c>
       <c r="B268">
@@ -3326,8 +3337,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:3">
-      <c r="A269">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A269" s="2">
         <v>0.92708333333333337</v>
       </c>
       <c r="B269">
@@ -3337,8 +3348,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:3">
-      <c r="A270">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A270" s="2">
         <v>0.93055555555555547</v>
       </c>
       <c r="B270">
@@ -3348,8 +3359,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:3">
-      <c r="A271">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A271" s="2">
         <v>0.93402777777777779</v>
       </c>
       <c r="B271">
@@ -3359,8 +3370,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:3">
-      <c r="A272">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A272" s="2">
         <v>0.9375</v>
       </c>
       <c r="B272">
@@ -3370,8 +3381,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:3">
-      <c r="A273">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A273" s="2">
         <v>0.94097222222222221</v>
       </c>
       <c r="B273">
@@ -3381,8 +3392,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:3">
-      <c r="A274">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A274" s="2">
         <v>0.94444444444444453</v>
       </c>
       <c r="B274">
@@ -3392,8 +3403,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:3">
-      <c r="A275">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A275" s="2">
         <v>0.94791666666666663</v>
       </c>
       <c r="B275">
@@ -3403,8 +3414,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:3">
-      <c r="A276">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A276" s="2">
         <v>0.95138888888888895</v>
       </c>
       <c r="B276">
@@ -3414,8 +3425,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:3">
-      <c r="A277">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A277" s="2">
         <v>0.95486111111111105</v>
       </c>
       <c r="B277">
@@ -3425,8 +3436,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:3">
-      <c r="A278">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A278" s="2">
         <v>0.95833333333333304</v>
       </c>
       <c r="B278">
@@ -3436,8 +3447,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:3">
-      <c r="A279">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A279" s="2">
         <v>0.96180555555555503</v>
       </c>
       <c r="B279">
@@ -3447,8 +3458,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:3">
-      <c r="A280">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A280" s="2">
         <v>0.96527777777777801</v>
       </c>
       <c r="B280">
@@ -3458,8 +3469,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:3">
-      <c r="A281">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A281" s="2">
         <v>0.96875</v>
       </c>
       <c r="B281">
@@ -3469,8 +3480,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:3">
-      <c r="A282">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A282" s="2">
         <v>0.97222222222222199</v>
       </c>
       <c r="B282">
@@ -3480,8 +3491,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:3">
-      <c r="A283">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A283" s="2">
         <v>0.97569444444444398</v>
       </c>
       <c r="B283">
@@ -3491,8 +3502,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:3">
-      <c r="A284">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A284" s="2">
         <v>0.97916666666666696</v>
       </c>
       <c r="B284">
@@ -3502,8 +3513,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:3">
-      <c r="A285">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A285" s="2">
         <v>0.98263888888888895</v>
       </c>
       <c r="B285">
@@ -3513,8 +3524,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:3">
-      <c r="A286">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A286" s="2">
         <v>0.98611111111111105</v>
       </c>
       <c r="B286">
@@ -3524,8 +3535,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:3">
-      <c r="A287">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A287" s="2">
         <v>0.98958333333333304</v>
       </c>
       <c r="B287">
@@ -3535,8 +3546,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:3">
-      <c r="A288">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A288" s="2">
         <v>0.99305555555555503</v>
       </c>
       <c r="B288">
@@ -3546,8 +3557,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:3">
-      <c r="A289">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A289" s="2">
         <v>0.99652777777777801</v>
       </c>
       <c r="B289">
@@ -3557,8 +3568,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:3">
-      <c r="A290">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A290" s="2">
         <v>1</v>
       </c>
       <c r="B290">
@@ -3568,12 +3579,142 @@
         <v>0</v>
       </c>
     </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A291" s="2"/>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A292" s="2"/>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A293" s="2"/>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A294" s="2"/>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A295" s="2"/>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A296" s="2"/>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A297" s="2"/>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A298" s="2"/>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A299" s="2"/>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A300" s="2"/>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A301" s="2"/>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A302" s="2"/>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A303" s="2"/>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A304" s="2"/>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A305" s="2"/>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A306" s="2"/>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A307" s="2"/>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A308" s="2"/>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A309" s="2"/>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A310" s="2"/>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A311" s="2"/>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A312" s="2"/>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A313" s="2"/>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A314" s="2"/>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A315" s="2"/>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A316" s="2"/>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A317" s="2"/>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A318" s="2"/>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A319" s="2"/>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A320" s="2"/>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A321" s="2"/>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A322" s="2"/>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A323" s="2"/>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A324" s="2"/>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A325" s="2"/>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A326" s="2"/>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A327" s="2"/>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A328" s="2"/>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A329" s="2"/>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A330" s="2"/>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A331" s="2"/>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A332" s="2"/>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A333" s="2"/>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A334" s="2"/>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A335" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>